--- a/src/main/webapp/WEB-INF/template/tem_TB_NHO.xlsx
+++ b/src/main/webapp/WEB-INF/template/tem_TB_NHO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>SEN TẮM NL NK HQ</t>
   </si>
@@ -64,20 +69,23 @@
     <t>Giá bán:</t>
   </si>
   <si>
-    <t>Xuất xứ:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên SP: </t>
   </si>
   <si>
     <t>T. năng:</t>
   </si>
+  <si>
+    <t>Nơi SX:</t>
+  </si>
+  <si>
+    <t>Nơi SX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,7 +403,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -504,7 +512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,9 +544,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,6 +579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -1588,99 +1598,99 @@
     <col min="16141" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.95" customHeight="1">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1">
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1">
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1">
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1">
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1">
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="21.95" customHeight="1">
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1">
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="16" spans="1:4" ht="21.95" customHeight="1"/>
-    <row r="17" ht="21.95" customHeight="1"/>
-    <row r="18" ht="21.95" customHeight="1"/>
-    <row r="19" ht="21.95" customHeight="1"/>
-    <row r="20" ht="21.95" customHeight="1"/>
-    <row r="21" ht="21.95" customHeight="1"/>
-    <row r="22" ht="21.95" customHeight="1"/>
-    <row r="23" ht="21.95" customHeight="1"/>
-    <row r="24" ht="21.95" customHeight="1"/>
-    <row r="25" ht="21.95" customHeight="1"/>
-    <row r="26" ht="21.95" customHeight="1"/>
-    <row r="27" ht="21.95" customHeight="1"/>
-    <row r="28" ht="21.95" customHeight="1"/>
-    <row r="29" ht="21.95" customHeight="1"/>
-    <row r="30" ht="21.95" customHeight="1"/>
-    <row r="31" ht="21.95" customHeight="1"/>
-    <row r="32" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
-    <row r="35" ht="21.95" customHeight="1"/>
-    <row r="36" ht="21.95" customHeight="1"/>
-    <row r="37" ht="21.95" customHeight="1"/>
-    <row r="38" ht="21.95" customHeight="1"/>
-    <row r="39" ht="21.95" customHeight="1"/>
-    <row r="40" ht="21.95" customHeight="1"/>
-    <row r="41" ht="21.95" customHeight="1"/>
-    <row r="42" ht="21.95" customHeight="1"/>
-    <row r="43" ht="21.95" customHeight="1"/>
-    <row r="44" ht="21.95" customHeight="1"/>
-    <row r="45" ht="21.95" customHeight="1"/>
-    <row r="46" ht="21.95" customHeight="1"/>
-    <row r="47" ht="21.95" customHeight="1"/>
-    <row r="48" ht="21.95" customHeight="1"/>
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1688,14 +1698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="9" customWidth="1"/>
@@ -2028,14 +2038,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -2871,16 +2881,16 @@
     <col min="16141" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
@@ -2889,21 +2899,21 @@
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
@@ -2912,66 +2922,66 @@
       </c>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="9" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="10" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="11" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="12" spans="1:7" ht="21.95" customHeight="1">
+    <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="14" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="15" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1"/>
-    <row r="17" ht="21.95" customHeight="1"/>
-    <row r="18" ht="21.95" customHeight="1"/>
-    <row r="19" ht="21.95" customHeight="1"/>
-    <row r="20" ht="21.95" customHeight="1"/>
-    <row r="21" ht="21.95" customHeight="1"/>
-    <row r="22" ht="21.95" customHeight="1"/>
-    <row r="23" ht="21.95" customHeight="1"/>
-    <row r="24" ht="21.95" customHeight="1"/>
-    <row r="25" ht="21.95" customHeight="1"/>
-    <row r="26" ht="21.95" customHeight="1"/>
-    <row r="27" ht="21.95" customHeight="1"/>
-    <row r="28" ht="21.95" customHeight="1"/>
-    <row r="29" ht="21.95" customHeight="1"/>
-    <row r="30" ht="21.95" customHeight="1"/>
-    <row r="31" ht="21.95" customHeight="1"/>
-    <row r="32" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
-    <row r="35" ht="21.95" customHeight="1"/>
-    <row r="36" ht="21.95" customHeight="1"/>
-    <row r="37" ht="21.95" customHeight="1"/>
-    <row r="38" ht="21.95" customHeight="1"/>
-    <row r="39" ht="21.95" customHeight="1"/>
-    <row r="40" ht="21.95" customHeight="1"/>
-    <row r="41" ht="21.95" customHeight="1"/>
-    <row r="42" ht="21.95" customHeight="1"/>
-    <row r="43" ht="21.95" customHeight="1"/>
-    <row r="44" ht="21.95" customHeight="1"/>
-    <row r="45" ht="21.95" customHeight="1"/>
-    <row r="46" ht="21.95" customHeight="1"/>
-    <row r="47" ht="21.95" customHeight="1"/>
-    <row r="48" ht="21.95" customHeight="1"/>
-    <row r="49" ht="21.95" customHeight="1"/>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:B7"/>
@@ -2984,14 +2994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
@@ -3315,7 +3325,7 @@
     <col min="16133" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -3324,7 +3334,7 @@
       </c>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="24.95" customHeight="1">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
@@ -3333,14 +3343,14 @@
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1">
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1">
+    <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
@@ -3349,7 +3359,7 @@
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1">
+    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
@@ -3358,14 +3368,14 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1">
+    <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:3" ht="57" customHeight="1">
+    <row r="7" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>8</v>
       </c>
